--- a/WorkBot/main/backend/orders/OrderFiles/Regional Distributors, Inc/Regional Distributors, Inc. _ BAKERY 02032025.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/Regional Distributors, Inc/Regional Distributors, Inc. _ BAKERY 02032025.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,6 +502,357 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bag Wax - 6#</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>$62.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>$62.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>18356</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Container - Plastic Clamshell (6")</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>$58.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>$58.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>34365</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Towel Disp Rolls (IB)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>$53.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>$107.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>26215</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Glove Latex - Med</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>$38.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>$38.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>26216</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Glove Latex - Large</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>$38.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>$38.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>21094</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lid - Soup (6/16 oz)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>$39.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>$39.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>27455</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Container - Soup (16oz)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>$45.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>$136.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>38018</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cont Salad Bowl - 24oz (paper)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>$41.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>$41.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>14909</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Lid - Deli (6/32oz)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>$24.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>$49.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>19608</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cup - Cold (24oz)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>$70.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>$70.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1847</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Wrap Sub 18x18 (Cold)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>$102.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>$102.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>39808</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Wrap Cushion 14x16 (Hot)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>$38.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>$77.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>26214</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Glove Latex - Small</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>$38.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>$38.62</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
